--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_18.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_18.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_0</t>
+          <t>model_1_18_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999846748333326</v>
+        <v>0.9239555714320624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8281735712247993</v>
+        <v>0.7540785385715916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8197359199195426</v>
+        <v>0.6753980490660716</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999935382675239</v>
+        <v>0.806573637953103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006379141538645637</v>
+        <v>0.3165369640594284</v>
       </c>
       <c r="G2" t="n">
-        <v>1.149004120407721</v>
+        <v>1.644477944935976</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6447941621358804</v>
+        <v>1.161082356988131</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003887018675698986</v>
+        <v>0.5615495715638692</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08662162142532337</v>
+        <v>1.568698995402151</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02525696248293852</v>
+        <v>0.5626161782773657</v>
       </c>
       <c r="L2" t="n">
-        <v>1.009808106667137</v>
+        <v>0.8964501398223829</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02565473439434506</v>
+        <v>0.5714768206753897</v>
       </c>
       <c r="N2" t="n">
-        <v>144.7146136774881</v>
+        <v>36.30063050828031</v>
       </c>
       <c r="O2" t="n">
-        <v>286.0497862207045</v>
+        <v>73.26521409650613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_1</t>
+          <t>model_1_18_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998496157872493</v>
+        <v>0.9240020804396412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8281382818178552</v>
+        <v>0.7540401312055772</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8196878586034207</v>
+        <v>0.6753942150388265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999359123900516</v>
+        <v>0.807000019903493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006259783003570463</v>
+        <v>0.3163433690737388</v>
       </c>
       <c r="G3" t="n">
-        <v>1.149240100834449</v>
+        <v>1.644734775169363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6449660746768934</v>
+        <v>1.161096071081277</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003855153980322335</v>
+        <v>0.5603117123649974</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08587137303608339</v>
+        <v>1.568265314871781</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0250195583565547</v>
+        <v>0.5624441030660192</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009624589616045</v>
+        <v>0.8965134712369582</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02541359139028776</v>
+        <v>0.5713020354514767</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7523897028627</v>
+        <v>36.30185408867358</v>
       </c>
       <c r="O3" t="n">
-        <v>286.0875622460791</v>
+        <v>73.2664376768994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_2</t>
+          <t>model_1_18_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998530066167253</v>
+        <v>0.9251623807988727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8281040127139838</v>
+        <v>0.7526060067064254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8196483768735012</v>
+        <v>0.6751665161660879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999374276300858</v>
+        <v>0.817973811751182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006118638821389247</v>
+        <v>0.3115135878520925</v>
       </c>
       <c r="G4" t="n">
-        <v>1.149469258489832</v>
+        <v>1.654324772298728</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6451072985355332</v>
+        <v>1.161910536746324</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003764005571862376</v>
+        <v>0.5284529313524755</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08498784832220617</v>
+        <v>1.555813663166803</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02473588248150699</v>
+        <v>0.5581340231988124</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009407576529583</v>
+        <v>0.8980934547048479</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02512544790377989</v>
+        <v>0.5669240761348607</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7980014299909</v>
+        <v>36.33262464198602</v>
       </c>
       <c r="O4" t="n">
-        <v>286.1331739732074</v>
+        <v>73.29720823021184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_3</t>
+          <t>model_1_18_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998553777692867</v>
+        <v>0.9252164450800269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8280846097479594</v>
+        <v>0.7524754654535664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8196391069322402</v>
+        <v>0.6751495839230859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999378740797285</v>
+        <v>0.8185029133336226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006019938962998571</v>
+        <v>0.3112885438384436</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14959900621298</v>
+        <v>1.655197702257683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6451404565779219</v>
+        <v>1.161971102397754</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003737149645757272</v>
+        <v>0.5269168596206336</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08428871815836982</v>
+        <v>1.555175217811395</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02453556390833227</v>
+        <v>0.557932382855166</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009255822765653</v>
+        <v>0.898167074151526</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02492197451332277</v>
+        <v>0.5667192601573682</v>
       </c>
       <c r="N5" t="n">
-        <v>144.8305265034873</v>
+        <v>36.33407000648939</v>
       </c>
       <c r="O5" t="n">
-        <v>286.1656990467037</v>
+        <v>73.29865359471522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_4</t>
+          <t>model_1_18_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998575966213363</v>
+        <v>0.9256597830975669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280637106245093</v>
+        <v>0.752053640293695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8196190853997583</v>
+        <v>0.6749888460953839</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999374240819213</v>
+        <v>0.8229085722090639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005927578654068703</v>
+        <v>0.3094431375047123</v>
       </c>
       <c r="G6" t="n">
-        <v>1.149738758747722</v>
+        <v>1.658018449044069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6452120724386946</v>
+        <v>1.162546052287329</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003764219009693016</v>
+        <v>0.5141264838529251</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08361462118525716</v>
+        <v>1.549654745649678</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02434661917817072</v>
+        <v>0.556276134221766</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009113816234475</v>
+        <v>0.8987707684732826</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02473005409253661</v>
+        <v>0.5650369272636334</v>
       </c>
       <c r="N6" t="n">
-        <v>144.8614491275148</v>
+        <v>36.34596185493903</v>
       </c>
       <c r="O6" t="n">
-        <v>286.1966216707311</v>
+        <v>73.31054544316486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_5</t>
+          <t>model_1_18_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998596520809875</v>
+        <v>0.9272727624997609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8280327526792828</v>
+        <v>0.7505339698671135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8196134844267694</v>
+        <v>0.6739836197837584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999371225323065</v>
+        <v>0.8402384363296723</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005842019597343958</v>
+        <v>0.3027290676816384</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14994577467</v>
+        <v>1.668180492184059</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6452321067943128</v>
+        <v>1.166141688517643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003782358556458577</v>
+        <v>0.4638149458122714</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08301832679115584</v>
+        <v>1.5248053695113</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02417027016262739</v>
+        <v>0.5502082039388712</v>
       </c>
       <c r="L7" t="n">
-        <v>1.008982266816801</v>
+        <v>0.9009671659571212</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02455092775628281</v>
+        <v>0.5588734331444878</v>
       </c>
       <c r="N7" t="n">
-        <v>144.890527626911</v>
+        <v>36.38983407908982</v>
       </c>
       <c r="O7" t="n">
-        <v>286.2257001701274</v>
+        <v>73.35441766731564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_6</t>
+          <t>model_1_18_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998730149025566</v>
+        <v>0.9275211656636446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8278731192982681</v>
+        <v>0.750263704266368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8193544048202335</v>
+        <v>0.6737555342719432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999315423513131</v>
+        <v>0.8431510464686586</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005285788582078073</v>
+        <v>0.3016950828803945</v>
       </c>
       <c r="G8" t="n">
-        <v>1.151013243823889</v>
+        <v>1.669987759500703</v>
       </c>
       <c r="H8" t="n">
-        <v>0.646158819524593</v>
+        <v>1.166957537168248</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004118031192481238</v>
+        <v>0.4553591440364837</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07855148641965591</v>
+        <v>1.520157853979215</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02299084292077625</v>
+        <v>0.5492677697447708</v>
       </c>
       <c r="L8" t="n">
-        <v>1.008127046236375</v>
+        <v>0.9013054170738991</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02335292571436721</v>
+        <v>0.5579181880519196</v>
       </c>
       <c r="N8" t="n">
-        <v>145.0906371048345</v>
+        <v>36.39667686198609</v>
       </c>
       <c r="O8" t="n">
-        <v>286.4258096480509</v>
+        <v>73.36126045021192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_7</t>
+          <t>model_1_18_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999874495737742</v>
+        <v>0.9282631254947128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8278573402095957</v>
+        <v>0.7494238417316701</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8193582244072662</v>
+        <v>0.672907793745662</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999297686405334</v>
+        <v>0.8524414487161357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005224148422150718</v>
+        <v>0.2986066552755958</v>
       </c>
       <c r="G9" t="n">
-        <v>1.151118758662498</v>
+        <v>1.675603924137438</v>
       </c>
       <c r="H9" t="n">
-        <v>0.646145157083249</v>
+        <v>1.169989855875936</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004224727762654704</v>
+        <v>0.4283875288620127</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07788689081891528</v>
+        <v>1.504682987574073</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02285639608982728</v>
+        <v>0.5464491332920163</v>
       </c>
       <c r="L9" t="n">
-        <v>1.008032272784511</v>
+        <v>0.9023157453545025</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02321636148022833</v>
+        <v>0.5550551608926371</v>
       </c>
       <c r="N9" t="n">
-        <v>145.1140971376296</v>
+        <v>36.41725621172309</v>
       </c>
       <c r="O9" t="n">
-        <v>286.449269680846</v>
+        <v>73.38183979994891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_8</t>
+          <t>model_1_18_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998753496340941</v>
+        <v>0.9297965478155624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8278165646585652</v>
+        <v>0.7456413719341566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.819309657094317</v>
+        <v>0.6694590565801831</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999259015719043</v>
+        <v>0.878055665654313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005188604758532093</v>
+        <v>0.2922237439275402</v>
       </c>
       <c r="G10" t="n">
-        <v>1.151391424959993</v>
+        <v>1.700897317090084</v>
       </c>
       <c r="H10" t="n">
-        <v>0.646318879545574</v>
+        <v>1.182325788747584</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004457349091951965</v>
+        <v>0.3540251079625796</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07720042919162781</v>
+        <v>1.454046609653729</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02277850907880516</v>
+        <v>0.5405772321579408</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007977623417979</v>
+        <v>0.9044038097914041</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02313724782664106</v>
+        <v>0.5490907831854476</v>
       </c>
       <c r="N10" t="n">
-        <v>145.1277510871863</v>
+        <v>36.46047104760701</v>
       </c>
       <c r="O10" t="n">
-        <v>286.4629236304027</v>
+        <v>73.42505463583282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_9</t>
+          <t>model_1_18_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998818963362551</v>
+        <v>0.9298343612975569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8274593653161926</v>
+        <v>0.7454850002945665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8193123797522528</v>
+        <v>0.6692923695520141</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998975625852576</v>
+        <v>0.8790025497961309</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004916096533319695</v>
+        <v>0.2920663442992378</v>
       </c>
       <c r="G11" t="n">
-        <v>1.15378001860719</v>
+        <v>1.701942974964048</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6463091407560067</v>
+        <v>1.182922018582275</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006162064828074</v>
+        <v>0.3512761425240963</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0724324929315318</v>
+        <v>1.451905529548013</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02217227217341447</v>
+        <v>0.540431627774724</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007558634479672</v>
+        <v>0.9044553004902903</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02252146329600503</v>
+        <v>0.5489428856787461</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2356510878141</v>
+        <v>36.46154859203421</v>
       </c>
       <c r="O11" t="n">
-        <v>286.5708236310305</v>
+        <v>73.42613218026003</v>
       </c>
     </row>
   </sheetData>
